--- a/rfuse/rfuse_Ecore_summary.xlsx
+++ b/rfuse/rfuse_Ecore_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>5565</v>
+        <v>5505</v>
       </c>
       <c r="C3" s="3">
         <v>12400</v>
       </c>
       <c r="D3" s="3">
-        <v>18900</v>
+        <v>20200</v>
       </c>
       <c r="E3" s="3">
-        <v>26000</v>
+        <v>26900</v>
       </c>
       <c r="F3" s="3">
-        <v>30200</v>
+        <v>30300</v>
       </c>
       <c r="G3" s="3">
-        <v>27500</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>4008</v>
+        <v>4001</v>
       </c>
       <c r="C8" s="3">
-        <v>8060</v>
+        <v>7532</v>
       </c>
       <c r="D8" s="3">
-        <v>15600</v>
+        <v>15500</v>
       </c>
       <c r="E8" s="3">
-        <v>29600</v>
+        <v>29900</v>
       </c>
       <c r="F8" s="3">
-        <v>177000</v>
+        <v>179000</v>
       </c>
       <c r="G8" s="3">
-        <v>234000</v>
+        <v>238000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>6826</v>
+        <v>6564</v>
       </c>
       <c r="C13" s="3">
-        <v>8677</v>
+        <v>8605</v>
       </c>
       <c r="D13" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="E13" s="3">
-        <v>12700</v>
+        <v>14300</v>
       </c>
       <c r="F13" s="3">
-        <v>13200</v>
+        <v>12600</v>
       </c>
       <c r="G13" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>110000</v>
+        <v>103000</v>
       </c>
       <c r="C18" s="3">
-        <v>161000</v>
+        <v>156000</v>
       </c>
       <c r="D18" s="3">
-        <v>191000</v>
+        <v>180000</v>
       </c>
       <c r="E18" s="3">
-        <v>211000</v>
+        <v>237000</v>
       </c>
       <c r="F18" s="3">
-        <v>231000</v>
+        <v>216000</v>
       </c>
       <c r="G18" s="3">
-        <v>220000</v>
+        <v>243000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>2515</v>
+        <v>2708</v>
       </c>
       <c r="C23" s="3">
-        <v>3413</v>
+        <v>2909</v>
       </c>
       <c r="D23" s="3">
-        <v>5649</v>
+        <v>6131</v>
       </c>
       <c r="E23" s="3">
-        <v>8031</v>
+        <v>7930</v>
       </c>
       <c r="F23" s="3">
-        <v>7926</v>
+        <v>8262</v>
       </c>
       <c r="G23" s="3">
-        <v>8092</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>83200</v>
+        <v>88800</v>
       </c>
       <c r="C28" s="3">
-        <v>97800</v>
+        <v>81600</v>
       </c>
       <c r="D28" s="3">
-        <v>178000</v>
+        <v>184000</v>
       </c>
       <c r="E28" s="3">
-        <v>303000</v>
+        <v>255000</v>
       </c>
       <c r="F28" s="3">
-        <v>273000</v>
+        <v>255000</v>
       </c>
       <c r="G28" s="3">
-        <v>470000</v>
+        <v>266000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>5333</v>
+        <v>5197</v>
       </c>
       <c r="C33" s="3">
-        <v>7288</v>
+        <v>7062</v>
       </c>
       <c r="D33" s="3">
-        <v>8827</v>
+        <v>8923</v>
       </c>
       <c r="E33" s="3">
+        <v>9362</v>
+      </c>
+      <c r="F33" s="3">
+        <v>9346</v>
+      </c>
+      <c r="G33" s="3">
         <v>10000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>9875</v>
-      </c>
-      <c r="G33" s="3">
-        <v>10200</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>112000</v>
+        <v>111000</v>
       </c>
       <c r="C38" s="3">
-        <v>161000</v>
+        <v>159000</v>
       </c>
       <c r="D38" s="3">
-        <v>210000</v>
+        <v>196000</v>
       </c>
       <c r="E38" s="3">
-        <v>216000</v>
+        <v>230000</v>
       </c>
       <c r="F38" s="3">
-        <v>228000</v>
+        <v>213000</v>
       </c>
       <c r="G38" s="3">
-        <v>234000</v>
+        <v>237000</v>
       </c>
     </row>
   </sheetData>
